--- a/dow30_complete.xlsx
+++ b/dow30_complete.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\range\Documents\NLP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmy31\Documents\NYU MFE\NLP\NLP_HW1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADC5CD3D-E46A-451B-A232-F339EB4027F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E6AA70-915F-460D-AC35-E35177E616E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="14623" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,357 +100,361 @@
     <t>PROCTER &amp; GAMBLE CO</t>
   </si>
   <si>
+    <t>RAYTHEON TECHNOLOGIES CORP</t>
+  </si>
+  <si>
+    <t>3M CO</t>
+  </si>
+  <si>
+    <t>MERCK &amp; CO</t>
+  </si>
+  <si>
+    <t>AMERICAN EXPRESS CO</t>
+  </si>
+  <si>
+    <t>MCDONALD'S CORP</t>
+  </si>
+  <si>
+    <t>BOEING CO</t>
+  </si>
+  <si>
+    <t>CATERPILLAR INC</t>
+  </si>
+  <si>
+    <t>DISNEY (WALT) CO</t>
+  </si>
+  <si>
+    <t>JOHNSON &amp; JOHNSON</t>
+  </si>
+  <si>
+    <t>WALMART INC</t>
+  </si>
+  <si>
+    <t>CITIGROUP INC</t>
+  </si>
+  <si>
+    <t>HP INC</t>
+  </si>
+  <si>
+    <t>HOME DEPOT INC</t>
+  </si>
+  <si>
+    <t>INTEL CORP</t>
+  </si>
+  <si>
+    <t>MICROSOFT CORP</t>
+  </si>
+  <si>
+    <t>AT&amp;T INC</t>
+  </si>
+  <si>
+    <t>JPMORGAN CHASE &amp; CO</t>
+  </si>
+  <si>
+    <t>VERIZON COMMUNICATIONS INC</t>
+  </si>
+  <si>
+    <t>PFIZER INC</t>
+  </si>
+  <si>
+    <t>CHEVRON CORP</t>
+  </si>
+  <si>
+    <t>BANK OF AMERICA CORP</t>
+  </si>
+  <si>
+    <t>MONDELEZ INTERNATIONAL INC</t>
+  </si>
+  <si>
+    <t>CISCO SYSTEMS INC</t>
+  </si>
+  <si>
+    <t>TRAVELERS COS INC</t>
+  </si>
+  <si>
+    <t>UNITEDHEALTH GROUP INC</t>
+  </si>
+  <si>
+    <t>NIKE INC  -CL B</t>
+  </si>
+  <si>
+    <t>GOLDMAN SACHS GROUP INC</t>
+  </si>
+  <si>
+    <t>VISA INC</t>
+  </si>
+  <si>
+    <t>APPLE INC</t>
+  </si>
+  <si>
+    <t>DUPONT DE NEMOURS INC</t>
+  </si>
+  <si>
+    <t>WALGREENS BOOTS ALLIANCE INC</t>
+  </si>
+  <si>
+    <t>DOW INC</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>XOM</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>RTX</t>
+  </si>
+  <si>
+    <t>MMM</t>
+  </si>
+  <si>
+    <t>MRK</t>
+  </si>
+  <si>
+    <t>AXP</t>
+  </si>
+  <si>
+    <t>MCD</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>DIS</t>
+  </si>
+  <si>
+    <t>JNJ</t>
+  </si>
+  <si>
+    <t>WMT</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>HPQ</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>INTC</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>JPM</t>
+  </si>
+  <si>
+    <t>VZ</t>
+  </si>
+  <si>
+    <t>PFE</t>
+  </si>
+  <si>
+    <t>CVX</t>
+  </si>
+  <si>
+    <t>BAC</t>
+  </si>
+  <si>
+    <t>MDLZ</t>
+  </si>
+  <si>
+    <t>CSCO</t>
+  </si>
+  <si>
+    <t>TRV</t>
+  </si>
+  <si>
+    <t>UNH</t>
+  </si>
+  <si>
+    <t>NKE</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>WBA</t>
+  </si>
+  <si>
+    <t>DOW</t>
+  </si>
+  <si>
+    <t>369604103</t>
+  </si>
+  <si>
+    <t>62010A105</t>
+  </si>
+  <si>
+    <t>30231G102</t>
+  </si>
+  <si>
+    <t>191216100</t>
+  </si>
+  <si>
+    <t>459200101</t>
+  </si>
+  <si>
+    <t>742718109</t>
+  </si>
+  <si>
+    <t>263534109</t>
+  </si>
+  <si>
+    <t>013817507</t>
+  </si>
+  <si>
+    <t>75513E101</t>
+  </si>
+  <si>
+    <t>88579Y101</t>
+  </si>
+  <si>
+    <t>58933Y105</t>
+  </si>
+  <si>
+    <t>025816109</t>
+  </si>
+  <si>
+    <t>580135101</t>
+  </si>
+  <si>
+    <t>097023105</t>
+  </si>
+  <si>
+    <t>149123101</t>
+  </si>
+  <si>
+    <t>254687106</t>
+  </si>
+  <si>
+    <t>478160104</t>
+  </si>
+  <si>
+    <t>931142103</t>
+  </si>
+  <si>
+    <t>172967424</t>
+  </si>
+  <si>
+    <t>40434L105</t>
+  </si>
+  <si>
+    <t>437076102</t>
+  </si>
+  <si>
+    <t>458140100</t>
+  </si>
+  <si>
+    <t>594918104</t>
+  </si>
+  <si>
+    <t>00206R102</t>
+  </si>
+  <si>
+    <t>46625H100</t>
+  </si>
+  <si>
+    <t>92343V104</t>
+  </si>
+  <si>
+    <t>717081103</t>
+  </si>
+  <si>
+    <t>166764100</t>
+  </si>
+  <si>
+    <t>060505104</t>
+  </si>
+  <si>
+    <t>609207105</t>
+  </si>
+  <si>
+    <t>17275R102</t>
+  </si>
+  <si>
+    <t>89417E109</t>
+  </si>
+  <si>
+    <t>91324P102</t>
+  </si>
+  <si>
+    <t>654106103</t>
+  </si>
+  <si>
+    <t>38141G104</t>
+  </si>
+  <si>
+    <t>92826C839</t>
+  </si>
+  <si>
+    <t>037833100</t>
+  </si>
+  <si>
+    <t>26614N102</t>
+  </si>
+  <si>
+    <t>931427108</t>
+  </si>
+  <si>
+    <t>260557103</t>
+  </si>
+  <si>
+    <t>ALCOA INC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>DU PONT (E I) DE NEMOURS</t>
-  </si>
-  <si>
-    <t>ALCOA INC</t>
-  </si>
-  <si>
-    <t>RAYTHEON TECHNOLOGIES CORP</t>
-  </si>
-  <si>
-    <t>3M CO</t>
-  </si>
-  <si>
-    <t>MERCK &amp; CO</t>
-  </si>
-  <si>
-    <t>AMERICAN EXPRESS CO</t>
-  </si>
-  <si>
-    <t>MCDONALD'S CORP</t>
-  </si>
-  <si>
-    <t>BOEING CO</t>
-  </si>
-  <si>
-    <t>CATERPILLAR INC</t>
-  </si>
-  <si>
-    <t>DISNEY (WALT) CO</t>
-  </si>
-  <si>
-    <t>JOHNSON &amp; JOHNSON</t>
-  </si>
-  <si>
-    <t>WALMART INC</t>
-  </si>
-  <si>
-    <t>CITIGROUP INC</t>
-  </si>
-  <si>
-    <t>HP INC</t>
-  </si>
-  <si>
-    <t>HOME DEPOT INC</t>
-  </si>
-  <si>
-    <t>INTEL CORP</t>
-  </si>
-  <si>
-    <t>MICROSOFT CORP</t>
-  </si>
-  <si>
-    <t>AT&amp;T INC</t>
-  </si>
-  <si>
-    <t>JPMORGAN CHASE &amp; CO</t>
-  </si>
-  <si>
-    <t>VERIZON COMMUNICATIONS INC</t>
-  </si>
-  <si>
-    <t>PFIZER INC</t>
-  </si>
-  <si>
-    <t>CHEVRON CORP</t>
-  </si>
-  <si>
-    <t>BANK OF AMERICA CORP</t>
-  </si>
-  <si>
-    <t>MONDELEZ INTERNATIONAL INC</t>
-  </si>
-  <si>
-    <t>CISCO SYSTEMS INC</t>
-  </si>
-  <si>
-    <t>TRAVELERS COS INC</t>
-  </si>
-  <si>
-    <t>UNITEDHEALTH GROUP INC</t>
-  </si>
-  <si>
-    <t>NIKE INC  -CL B</t>
-  </si>
-  <si>
-    <t>GOLDMAN SACHS GROUP INC</t>
-  </si>
-  <si>
-    <t>VISA INC</t>
-  </si>
-  <si>
-    <t>APPLE INC</t>
-  </si>
-  <si>
-    <t>DUPONT DE NEMOURS INC</t>
-  </si>
-  <si>
-    <t>WALGREENS BOOTS ALLIANCE INC</t>
-  </si>
-  <si>
-    <t>DOW INC</t>
-  </si>
-  <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>GM</t>
-  </si>
-  <si>
-    <t>XOM</t>
-  </si>
-  <si>
-    <t>KO</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>DD.2</t>
-  </si>
-  <si>
-    <t>AA.3</t>
-  </si>
-  <si>
-    <t>RTX</t>
-  </si>
-  <si>
-    <t>MMM</t>
-  </si>
-  <si>
-    <t>MRK</t>
-  </si>
-  <si>
-    <t>AXP</t>
-  </si>
-  <si>
-    <t>MCD</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>CAT</t>
-  </si>
-  <si>
-    <t>DIS</t>
-  </si>
-  <si>
-    <t>JNJ</t>
-  </si>
-  <si>
-    <t>WMT</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>HPQ</t>
-  </si>
-  <si>
-    <t>HD</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>MSFT</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>JPM</t>
-  </si>
-  <si>
-    <t>VZ</t>
-  </si>
-  <si>
-    <t>PFE</t>
-  </si>
-  <si>
-    <t>CVX</t>
-  </si>
-  <si>
-    <t>BAC</t>
-  </si>
-  <si>
-    <t>MDLZ</t>
-  </si>
-  <si>
-    <t>CSCO</t>
-  </si>
-  <si>
-    <t>TRV</t>
-  </si>
-  <si>
-    <t>UNH</t>
-  </si>
-  <si>
-    <t>NKE</t>
-  </si>
-  <si>
-    <t>GS</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>DD</t>
-  </si>
-  <si>
-    <t>WBA</t>
-  </si>
-  <si>
-    <t>DOW</t>
-  </si>
-  <si>
-    <t>369604103</t>
-  </si>
-  <si>
-    <t>62010A105</t>
-  </si>
-  <si>
-    <t>30231G102</t>
-  </si>
-  <si>
-    <t>191216100</t>
-  </si>
-  <si>
-    <t>459200101</t>
-  </si>
-  <si>
-    <t>742718109</t>
-  </si>
-  <si>
-    <t>263534109</t>
-  </si>
-  <si>
-    <t>013817507</t>
-  </si>
-  <si>
-    <t>75513E101</t>
-  </si>
-  <si>
-    <t>88579Y101</t>
-  </si>
-  <si>
-    <t>58933Y105</t>
-  </si>
-  <si>
-    <t>025816109</t>
-  </si>
-  <si>
-    <t>580135101</t>
-  </si>
-  <si>
-    <t>097023105</t>
-  </si>
-  <si>
-    <t>149123101</t>
-  </si>
-  <si>
-    <t>254687106</t>
-  </si>
-  <si>
-    <t>478160104</t>
-  </si>
-  <si>
-    <t>931142103</t>
-  </si>
-  <si>
-    <t>172967424</t>
-  </si>
-  <si>
-    <t>40434L105</t>
-  </si>
-  <si>
-    <t>437076102</t>
-  </si>
-  <si>
-    <t>458140100</t>
-  </si>
-  <si>
-    <t>594918104</t>
-  </si>
-  <si>
-    <t>00206R102</t>
-  </si>
-  <si>
-    <t>46625H100</t>
-  </si>
-  <si>
-    <t>92343V104</t>
-  </si>
-  <si>
-    <t>717081103</t>
-  </si>
-  <si>
-    <t>166764100</t>
-  </si>
-  <si>
-    <t>060505104</t>
-  </si>
-  <si>
-    <t>609207105</t>
-  </si>
-  <si>
-    <t>17275R102</t>
-  </si>
-  <si>
-    <t>89417E109</t>
-  </si>
-  <si>
-    <t>91324P102</t>
-  </si>
-  <si>
-    <t>654106103</t>
-  </si>
-  <si>
-    <t>38141G104</t>
-  </si>
-  <si>
-    <t>92826C839</t>
-  </si>
-  <si>
-    <t>037833100</t>
-  </si>
-  <si>
-    <t>26614N102</t>
-  </si>
-  <si>
-    <t>931427108</t>
-  </si>
-  <si>
-    <t>260557103</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTA-PB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -458,8 +462,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -845,15 +856,15 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -882,7 +893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -908,13 +919,13 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -940,13 +951,13 @@
         <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -972,13 +983,13 @@
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1004,13 +1015,13 @@
         <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1036,13 +1047,13 @@
         <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1068,13 +1079,13 @@
         <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1097,16 +1108,16 @@
         <v>4087</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1129,16 +1140,16 @@
         <v>1356</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1161,16 +1172,16 @@
         <v>10983</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1193,16 +1204,16 @@
         <v>7435</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1225,16 +1236,16 @@
         <v>7257</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1257,16 +1268,16 @@
         <v>1447</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1289,16 +1300,16 @@
         <v>7154</v>
       </c>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1321,16 +1332,16 @@
         <v>2285</v>
       </c>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I15" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1353,16 +1364,16 @@
         <v>2817</v>
       </c>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1385,16 +1396,16 @@
         <v>3980</v>
       </c>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1417,16 +1428,16 @@
         <v>6266</v>
       </c>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1449,16 +1460,16 @@
         <v>11259</v>
       </c>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1481,16 +1492,16 @@
         <v>3243</v>
       </c>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1513,16 +1524,16 @@
         <v>5606</v>
       </c>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1545,16 +1556,16 @@
         <v>5680</v>
       </c>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I22" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1577,16 +1588,16 @@
         <v>6008</v>
       </c>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I23" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1609,16 +1620,16 @@
         <v>12141</v>
       </c>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1641,16 +1652,16 @@
         <v>9899</v>
       </c>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1673,16 +1684,16 @@
         <v>2968</v>
       </c>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1705,16 +1716,16 @@
         <v>2136</v>
       </c>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I27" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1737,16 +1748,16 @@
         <v>8530</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I28" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1769,16 +1780,16 @@
         <v>2991</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I29" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1801,16 +1812,16 @@
         <v>7647</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1833,16 +1844,16 @@
         <v>142953</v>
       </c>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1865,16 +1876,16 @@
         <v>20779</v>
       </c>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1897,16 +1908,16 @@
         <v>62689</v>
       </c>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I33" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1929,16 +1940,16 @@
         <v>10903</v>
       </c>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I34" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1961,16 +1972,16 @@
         <v>7906</v>
       </c>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1993,16 +2004,16 @@
         <v>114628</v>
       </c>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I36" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2025,16 +2036,16 @@
         <v>179534</v>
       </c>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I37" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2057,16 +2068,16 @@
         <v>1690</v>
       </c>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I38" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2089,16 +2100,16 @@
         <v>4060</v>
       </c>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I39" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2121,16 +2132,16 @@
         <v>11264</v>
       </c>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I40" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2153,16 +2164,17 @@
         <v>34443</v>
       </c>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I41" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
